--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Carta Gantt Novacommerce.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Carta Gantt Novacommerce.xlsx
@@ -151,10 +151,10 @@
     <t>6. Despliegue a la red</t>
   </si>
   <si>
-    <t>6.1 Configuración de servidor AWS</t>
-  </si>
-  <si>
-    <t>6.2 Integración con Cloudflare y configuración de Nginx</t>
+    <t>6.1 Configuración de servidor hostinger</t>
+  </si>
+  <si>
+    <t>6.2 Configuración de Nginx y Gunicorn</t>
   </si>
 </sst>
 </file>
